--- a/Project/DataTable/Excel/角色取名配置表.xlsx
+++ b/Project/DataTable/Excel/角色取名配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="7650"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="角色取名配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,219 @@
   </si>
   <si>
     <t>陈奕迅</t>
+  </si>
+  <si>
+    <t>白子画</t>
+  </si>
+  <si>
+    <t>东方玉卿</t>
+  </si>
+  <si>
+    <t>霓漫天</t>
+  </si>
+  <si>
+    <t>陆无双</t>
+  </si>
+  <si>
+    <t>武神</t>
+  </si>
+  <si>
+    <t>洪玄公</t>
+  </si>
+  <si>
+    <t>普罗米修斯</t>
+  </si>
+  <si>
+    <t>皇家宰相</t>
+  </si>
+  <si>
+    <t>刀锋领主</t>
+  </si>
+  <si>
+    <t>塔亚克</t>
+  </si>
+  <si>
+    <t>黑暗女王</t>
+  </si>
+  <si>
+    <t>惧之煞</t>
+  </si>
+  <si>
+    <t>疑之煞</t>
+  </si>
+  <si>
+    <t>怒之煞</t>
+  </si>
+  <si>
+    <t>黑暗魔君</t>
+  </si>
+  <si>
+    <t>亚拉贡</t>
+  </si>
+  <si>
+    <t>莱戈拉斯</t>
+  </si>
+  <si>
+    <t>风吻精灵</t>
+  </si>
+  <si>
+    <t>黑暗魔像</t>
+  </si>
+  <si>
+    <t>魔古山宝库</t>
+  </si>
+  <si>
+    <t>法拉墨</t>
+  </si>
+  <si>
+    <t>法拉利</t>
+  </si>
+  <si>
+    <t>路虎</t>
+  </si>
+  <si>
+    <t>宾利</t>
+  </si>
+  <si>
+    <t>外星人</t>
+  </si>
+  <si>
+    <t>兰博基尼</t>
+  </si>
+  <si>
+    <t>兰瑟杜伊</t>
+  </si>
+  <si>
+    <t>永春台</t>
+  </si>
+  <si>
+    <t>心能魔像</t>
+  </si>
+  <si>
+    <t>黑索</t>
+  </si>
+  <si>
+    <t>加拉隆</t>
+  </si>
+  <si>
+    <t>比尔博</t>
+  </si>
+  <si>
+    <t>聂风</t>
+  </si>
+  <si>
+    <t>步惊云</t>
+  </si>
+  <si>
+    <t>杀阡陌</t>
+  </si>
+  <si>
+    <t>秦霜</t>
+  </si>
+  <si>
+    <t>烈行云</t>
+  </si>
+  <si>
+    <t>无垢上仙</t>
+  </si>
+  <si>
+    <t>夏紫薰</t>
+  </si>
+  <si>
+    <t>檀梵上仙</t>
+  </si>
+  <si>
+    <t>东华上仙</t>
+  </si>
+  <si>
+    <t>摩严</t>
+  </si>
+  <si>
+    <t>笙箫默</t>
+  </si>
+  <si>
+    <t>何以琛</t>
+  </si>
+  <si>
+    <t>赵默笙</t>
+  </si>
+  <si>
+    <t>拉格拉罗斯</t>
+  </si>
+  <si>
+    <t>鹿盔</t>
+  </si>
+  <si>
+    <t>地狱咆哮</t>
+  </si>
+  <si>
+    <t>魔多</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>洛萨</t>
+  </si>
+  <si>
+    <t>燃烧之刃</t>
+  </si>
+  <si>
+    <t>冰霜之刃</t>
+  </si>
+  <si>
+    <t>胡一刀</t>
+  </si>
+  <si>
+    <t>苗人凤</t>
+  </si>
+  <si>
+    <t>胡斐</t>
+  </si>
+  <si>
+    <t>程灵素</t>
+  </si>
+  <si>
+    <t>万磁王</t>
+  </si>
+  <si>
+    <t>凤凰女</t>
+  </si>
+  <si>
+    <t>镭射眼</t>
+  </si>
+  <si>
+    <t>云端</t>
+  </si>
+  <si>
+    <t>杨过</t>
+  </si>
+  <si>
+    <t>程英</t>
+  </si>
+  <si>
+    <t>郭芙</t>
+  </si>
+  <si>
+    <t>郭襄</t>
+  </si>
+  <si>
+    <t>洪七公</t>
+  </si>
+  <si>
+    <t>欧阳锋</t>
+  </si>
+  <si>
+    <t>陆雪琪</t>
+  </si>
+  <si>
+    <t>张小凡</t>
+  </si>
+  <si>
+    <t>碧瑶</t>
+  </si>
+  <si>
+    <t>曾书书</t>
   </si>
 </sst>
 </file>
@@ -61,9 +274,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -136,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -496,16 +712,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -559,7 +776,7 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -570,21 +787,585 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>1003</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5">
+        <v>1032</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <v>1033</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <v>1035</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5">
+        <v>1036</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5">
+        <v>1037</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5">
+        <v>1038</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5">
+        <v>1039</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5">
+        <v>1041</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5">
+        <v>1042</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5">
+        <v>1043</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5">
+        <v>1044</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5">
+        <v>1045</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5">
+        <v>1046</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5">
+        <v>1048</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <v>1049</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <v>1051</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <v>1052</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5">
+        <v>1053</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5">
+        <v>1054</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5">
+        <v>1055</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5">
+        <v>1056</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5">
+        <v>1057</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5">
+        <v>1058</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5">
+        <v>1059</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5">
+        <v>1060</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5">
+        <v>1061</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5">
+        <v>1062</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5">
+        <v>1063</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5">
+        <v>1064</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5">
+        <v>1065</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5">
+        <v>1066</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5">
+        <v>1067</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5">
+        <v>1068</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5">
+        <v>1069</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5">
+        <v>1070</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5">
+        <v>1071</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5">
+        <v>1072</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5">
+        <v>1073</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2 C2">
       <formula1>"uint,int,string,float,byte,short,ushort,word,char,vector3"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3:C3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3:B3 C3">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/DataTable/Excel/角色取名配置表.xlsx
+++ b/Project/DataTable/Excel/角色取名配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,9 @@
     <t>张学友</t>
   </si>
   <si>
+    <t>渣渣辉</t>
+  </si>
+  <si>
     <t>陈奕迅</t>
   </si>
   <si>
@@ -167,105 +170,6 @@
   </si>
   <si>
     <t>无垢上仙</t>
-  </si>
-  <si>
-    <t>夏紫薰</t>
-  </si>
-  <si>
-    <t>檀梵上仙</t>
-  </si>
-  <si>
-    <t>东华上仙</t>
-  </si>
-  <si>
-    <t>摩严</t>
-  </si>
-  <si>
-    <t>笙箫默</t>
-  </si>
-  <si>
-    <t>何以琛</t>
-  </si>
-  <si>
-    <t>赵默笙</t>
-  </si>
-  <si>
-    <t>拉格拉罗斯</t>
-  </si>
-  <si>
-    <t>鹿盔</t>
-  </si>
-  <si>
-    <t>地狱咆哮</t>
-  </si>
-  <si>
-    <t>魔多</t>
-  </si>
-  <si>
-    <t>死亡骑士</t>
-  </si>
-  <si>
-    <t>洛萨</t>
-  </si>
-  <si>
-    <t>燃烧之刃</t>
-  </si>
-  <si>
-    <t>冰霜之刃</t>
-  </si>
-  <si>
-    <t>胡一刀</t>
-  </si>
-  <si>
-    <t>苗人凤</t>
-  </si>
-  <si>
-    <t>胡斐</t>
-  </si>
-  <si>
-    <t>程灵素</t>
-  </si>
-  <si>
-    <t>万磁王</t>
-  </si>
-  <si>
-    <t>凤凰女</t>
-  </si>
-  <si>
-    <t>镭射眼</t>
-  </si>
-  <si>
-    <t>云端</t>
-  </si>
-  <si>
-    <t>杨过</t>
-  </si>
-  <si>
-    <t>程英</t>
-  </si>
-  <si>
-    <t>郭芙</t>
-  </si>
-  <si>
-    <t>郭襄</t>
-  </si>
-  <si>
-    <t>洪七公</t>
-  </si>
-  <si>
-    <t>欧阳锋</t>
-  </si>
-  <si>
-    <t>陆雪琪</t>
-  </si>
-  <si>
-    <t>张小凡</t>
-  </si>
-  <si>
-    <t>碧瑶</t>
-  </si>
-  <si>
-    <t>曾书书</t>
   </si>
 </sst>
 </file>
@@ -273,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -712,10 +616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -787,7 +691,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -795,7 +699,9 @@
       <c r="A7" s="5">
         <v>1003</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
@@ -804,6 +710,7 @@
       <c r="A8" s="5">
         <v>1004</v>
       </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1102,262 +1009,6 @@
       </c>
       <c r="C45" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5">
-        <v>1042</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5">
-        <v>1043</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5">
-        <v>1044</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5">
-        <v>1045</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5">
-        <v>1046</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5">
-        <v>1047</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5">
-        <v>1048</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="5">
-        <v>1049</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5">
-        <v>1050</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5">
-        <v>1051</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5">
-        <v>1052</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5">
-        <v>1053</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5">
-        <v>1054</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5">
-        <v>1055</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5">
-        <v>1056</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5">
-        <v>1057</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5">
-        <v>1058</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5">
-        <v>1059</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5">
-        <v>1060</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5">
-        <v>1061</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5">
-        <v>1062</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="5">
-        <v>1063</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5">
-        <v>1064</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5">
-        <v>1065</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="5">
-        <v>1066</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5">
-        <v>1067</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5">
-        <v>1068</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5">
-        <v>1069</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5">
-        <v>1070</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="5">
-        <v>1071</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="5">
-        <v>1072</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="5">
-        <v>1073</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
